--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD22B65-A270-4C2C-9806-43025D0F7FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2659E99F-E229-4B0B-9D90-0071F84FD089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -411,13 +414,46 @@
   </si>
   <si>
     <t>Restricted Access Record Designation</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>level3</t>
+  </si>
+  <si>
+    <t>fcf381c8-f64d-42cc-a3c5-560642e6ac68</t>
+  </si>
+  <si>
+    <t>6d3f6a41-192c-3809-9666-6d0edd3040ed</t>
+  </si>
+  <si>
+    <t>uuid_collection</t>
+  </si>
+  <si>
+    <t>uuid_thesauri</t>
+  </si>
+  <si>
+    <t>472b85a1-d2ae-3983-81a0-5c6341a93f5b</t>
+  </si>
+  <si>
+    <t>5d0080d4-6c43-33e5-8891-0cd48a662075</t>
+  </si>
+  <si>
+    <t>372f1e4f-45be-3601-9af5-377ef8b8863d</t>
+  </si>
+  <si>
+    <t>17b3a251-69b0-43a1-9c10-50839fcd2aa8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,14 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -455,13 +483,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -621,88 +675,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -711,174 +689,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,789 +1146,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="11" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="11" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="4" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="21" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="23" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="25" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="11" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="11" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="11" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="11" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="11" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="11" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="11" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="19"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="27" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="27" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="27" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="28" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="26" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="27" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="29" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="22" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="30" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="31" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="11" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="32" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="34" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="35" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="11" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="36" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="33" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="35" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="36"/>
-      <c r="B67" s="38" t="s">
+      <c r="E67" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="33" t="s">
+      <c r="D68" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="36"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="35" t="s">
+      <c r="D69" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="36"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="26" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="36"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="29" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="36"/>
-      <c r="B77" s="40" t="s">
+      <c r="D77" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="36"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="33" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="36"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="35" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="11" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="42" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="11" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="11" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="11" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="43" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="45" t="s">
+      <c r="B86" s="33"/>
+      <c r="C86" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
-      <c r="B86" s="46" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="11" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="43"/>
-      <c r="B88" s="47" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="32"/>
+      <c r="B89" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="43"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="11" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="32"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="43"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="11" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="48" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+      <c r="B92" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="43"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="11" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="32"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="43"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="11" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="32"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="43"/>
-      <c r="B94" s="49" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
+      <c r="B95" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="11" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="32"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="43"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="11" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="11" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="32"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="11" t="s">
+      <c r="B99" s="39"/>
+      <c r="C99" s="14" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A65:A84"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A64"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B3:B8"/>
+  <autoFilter ref="A1:E1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <mergeCells count="5">
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2659E99F-E229-4B0B-9D90-0071F84FD089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE4B7A8-877E-48E3-A537-332466B76776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>17b3a251-69b0-43a1-9c10-50839fcd2aa8</t>
+  </si>
+  <si>
+    <t>uuid_sql</t>
+  </si>
+  <si>
+    <t>34cfe9f5-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea8e-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -703,13 +712,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,19 +723,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,25 +755,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,13 +782,13 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +800,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,12 +819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,12 +1163,12 @@
     <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="41.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
@@ -1173,1035 +1178,1140 @@
       <c r="C1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7" t="s">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7" t="s">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="21" t="s">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="21" t="s">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="21" t="s">
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="23" t="s">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="25" t="s">
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="25" t="s">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="25" t="s">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="26" t="s">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="26" t="s">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="26" t="s">
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="26" t="s">
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="14" t="s">
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="14" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="D66" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="12"/>
+      <c r="E68" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="12"/>
+      <c r="E69" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="14" t="s">
+      <c r="B85" s="25"/>
+      <c r="C85" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="14" t="s">
+      <c r="B86" s="30"/>
+      <c r="C86" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="33"/>
       <c r="B87" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="33"/>
       <c r="B88" s="34"/>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="33"/>
       <c r="B89" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="33"/>
       <c r="B90" s="35"/>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="14" t="s">
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="33"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="33"/>
       <c r="B92" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="33"/>
       <c r="B93" s="36"/>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="33"/>
       <c r="B94" s="36"/>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="33"/>
       <c r="B95" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
       <c r="B96" s="37"/>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="33"/>
       <c r="B97" s="37"/>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="33"/>
       <c r="B98" s="37"/>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="14" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="12" t="s">
         <v>124</v>
       </c>
+      <c r="D99" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
   <mergeCells count="5">
     <mergeCell ref="A86:A98"/>
     <mergeCell ref="B87:B88"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE4B7A8-877E-48E3-A537-332466B76776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B1EFB-42FD-4E73-B37F-0B1BBFDE1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -712,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -732,8 +732,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +817,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1168,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,9 +1176,9 @@
     <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1178,13 +1191,13 @@
       <c r="C1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="36" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1198,11 +1211,11 @@
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="39" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1216,7 +1229,7 @@
       <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1228,7 +1241,7 @@
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1240,7 +1253,7 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1252,7 +1265,7 @@
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1264,7 +1277,7 @@
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1276,7 +1289,7 @@
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1288,1027 +1301,1027 @@
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="18"/>
+      <c r="A33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="18"/>
+      <c r="A34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="41"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="20"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="20"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="20"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="22"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="20"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="41"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="23" t="s">
+      <c r="A60" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="41"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="41"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="41"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="40" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="7" t="s">
+      <c r="D68" s="41"/>
+      <c r="E68" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="7" t="s">
+      <c r="D69" s="41"/>
+      <c r="E69" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="41"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="27"/>
+      <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="27"/>
+      <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="27"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="27"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="27"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" t="s">
+      <c r="D77" s="41"/>
+      <c r="E77" s="40" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="41"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="41"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34" t="s">
+      <c r="A87" s="31"/>
+      <c r="B87" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="12" t="s">
+      <c r="A88" s="31"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="12" t="s">
+      <c r="A90" s="31"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="12"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="12" t="s">
+      <c r="A91" s="31"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="36" t="s">
+      <c r="A92" s="31"/>
+      <c r="B92" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="12"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="12" t="s">
+      <c r="A93" s="31"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="12" t="s">
+      <c r="A94" s="31"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="37" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="12"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="12" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="12"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="12" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="12"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="33"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="12" t="s">
+      <c r="A98" s="31"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="12"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="30"/>
+      <c r="C99" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B1EFB-42FD-4E73-B37F-0B1BBFDE1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E8C8-F721-483D-A601-25EEFC7E030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>34cfea8e-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea4d-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -804,6 +807,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -817,21 +822,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1157,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,9 +1166,9 @@
     <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1191,13 +1181,13 @@
       <c r="C1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1211,11 +1201,11 @@
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="32" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1229,7 +1219,7 @@
       <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1241,7 +1231,9 @@
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1253,7 +1245,7 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1265,7 +1257,7 @@
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1277,7 +1269,7 @@
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1289,7 +1281,7 @@
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1301,7 +1293,7 @@
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1313,7 +1305,7 @@
       <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1325,7 +1317,7 @@
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1335,7 +1327,7 @@
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1347,7 +1339,7 @@
       <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1359,7 +1351,7 @@
       <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1371,7 +1363,7 @@
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1383,7 +1375,7 @@
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1395,7 +1387,7 @@
       <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -1407,7 +1399,7 @@
       <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1419,7 +1411,7 @@
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
@@ -1429,7 +1421,7 @@
       <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -1439,7 +1431,7 @@
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
@@ -1449,7 +1441,7 @@
       <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
@@ -1459,7 +1451,7 @@
       <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
@@ -1469,7 +1461,7 @@
       <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
@@ -1479,7 +1471,7 @@
       <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
@@ -1489,7 +1481,7 @@
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
@@ -1499,7 +1491,7 @@
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
@@ -1509,7 +1501,7 @@
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -1521,7 +1513,7 @@
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
@@ -1533,7 +1525,7 @@
       <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -1545,7 +1537,7 @@
       <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
@@ -1557,7 +1549,7 @@
       <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
@@ -1567,7 +1559,7 @@
       <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
@@ -1577,7 +1569,7 @@
       <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
@@ -1589,7 +1581,7 @@
       <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -1601,7 +1593,7 @@
       <c r="C36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
@@ -1613,7 +1605,7 @@
       <c r="C37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
@@ -1625,7 +1617,7 @@
       <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
@@ -1637,7 +1629,7 @@
       <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
@@ -1649,7 +1641,7 @@
       <c r="C40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
@@ -1661,7 +1653,7 @@
       <c r="C41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
@@ -1673,7 +1665,7 @@
       <c r="C42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
@@ -1685,7 +1677,7 @@
       <c r="C43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
@@ -1697,7 +1689,7 @@
       <c r="C44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
@@ -1709,7 +1701,7 @@
       <c r="C45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
@@ -1721,7 +1713,7 @@
       <c r="C46" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="41"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
@@ -1733,7 +1725,7 @@
       <c r="C47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
@@ -1745,7 +1737,7 @@
       <c r="C48" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
@@ -1757,7 +1749,7 @@
       <c r="C49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -1769,7 +1761,7 @@
       <c r="C50" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
@@ -1781,7 +1773,7 @@
       <c r="C51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
@@ -1793,7 +1785,7 @@
       <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="37"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
@@ -1805,7 +1797,7 @@
       <c r="C53" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
@@ -1817,7 +1809,7 @@
       <c r="C54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
@@ -1829,7 +1821,7 @@
       <c r="C55" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
@@ -1841,7 +1833,7 @@
       <c r="C56" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
@@ -1853,7 +1845,7 @@
       <c r="C57" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="41"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
@@ -1865,7 +1857,7 @@
       <c r="C58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="41"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
@@ -1877,7 +1869,7 @@
       <c r="C59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
@@ -1889,7 +1881,7 @@
       <c r="C60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="41"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
@@ -1901,7 +1893,7 @@
       <c r="C61" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="41"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
@@ -1913,7 +1905,7 @@
       <c r="C62" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="41"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
@@ -1925,7 +1917,7 @@
       <c r="C63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="41"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
@@ -1937,7 +1929,7 @@
       <c r="C64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
@@ -1947,7 +1939,7 @@
       <c r="C65" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
@@ -1957,7 +1949,7 @@
       <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1969,10 +1961,10 @@
       <c r="C67" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1986,8 +1978,8 @@
       <c r="C68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="38" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="31" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2001,8 +1993,8 @@
       <c r="C69" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="38" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="31" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2016,7 +2008,7 @@
       <c r="C70" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="41"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
@@ -2028,7 +2020,7 @@
       <c r="C71" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="37"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
@@ -2040,7 +2032,7 @@
       <c r="C72" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="37"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
@@ -2052,7 +2044,7 @@
       <c r="C73" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="37"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
@@ -2064,7 +2056,7 @@
       <c r="C74" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="37"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
@@ -2076,7 +2068,7 @@
       <c r="C75" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="37"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
@@ -2088,7 +2080,7 @@
       <c r="C76" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="41"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
@@ -2100,8 +2092,8 @@
       <c r="C77" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="40" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2115,7 +2107,7 @@
       <c r="C78" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="41"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
@@ -2127,7 +2119,7 @@
       <c r="C79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
@@ -2139,7 +2131,7 @@
       <c r="C80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="41"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
@@ -2151,7 +2143,7 @@
       <c r="C81" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="41"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
@@ -2163,7 +2155,7 @@
       <c r="C82" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="41"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
@@ -2175,7 +2167,7 @@
       <c r="C83" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="41"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
@@ -2187,7 +2179,7 @@
       <c r="C84" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="41"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
@@ -2197,121 +2189,121 @@
       <c r="C85" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="41"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="41"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="32" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="41"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
-      <c r="B89" s="33" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="41"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="41"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="28"/>
       <c r="C91" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="41"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="34" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="41"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="41"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
-      <c r="B95" s="35" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="41"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
-      <c r="B96" s="35"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="41"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
-      <c r="B98" s="35"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="41"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="29" t="s">
@@ -2321,7 +2313,7 @@
       <c r="C99" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="41"/>
+      <c r="D99" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E8C8-F721-483D-A601-25EEFC7E030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D824C0-BD23-40AB-8FAA-7058098E9344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D824C0-BD23-40AB-8FAA-7058098E9344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9D18D-445B-40FD-A28C-FCD0E4EF39DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -38,8 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9316DFD1-CDFA-4A68-9C79-645F056CD881}</author>
+  </authors>
+  <commentList>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Level 1 is same as level2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="140">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -495,13 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +538,12 @@
       <color rgb="FF555555"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="28">
@@ -715,15 +732,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -738,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -792,10 +809,10 @@
     <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,21 +821,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,6 +863,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Thomas Huet" id="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" userId="S::arch0572@ox.ac.uk::9dce33a8-66a7-403f-a2c6-95948cb855d0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,13 +1166,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B65" dT="2023-10-02T10:02:40.03" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
+    <text>Level 1 is same as level2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,10 +1224,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1323,7 +1345,9 @@
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
@@ -1417,7 +1441,9 @@
       <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1453,9 @@
       <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1465,9 @@
       <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
@@ -1447,7 +1477,9 @@
       <c r="A23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1489,9 @@
       <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1501,9 @@
       <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
@@ -1477,7 +1513,9 @@
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
@@ -1487,7 +1525,9 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1497,7 +1537,9 @@
       <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
@@ -1555,7 +1597,9 @@
       <c r="A33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
@@ -1565,7 +1609,9 @@
       <c r="A34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
@@ -1935,7 +1981,9 @@
       <c r="A65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="C65" s="10" t="s">
         <v>90</v>
       </c>
@@ -1945,7 +1993,9 @@
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
@@ -1957,7 +2007,9 @@
       <c r="A67" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="C67" s="10" t="s">
         <v>92</v>
       </c>
@@ -1979,7 +2031,7 @@
         <v>93</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="30" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1994,7 +2046,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="10"/>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="30" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2185,25 +2237,31 @@
       <c r="A85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="C85" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="C86" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34" t="s">
+      <c r="A87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -2212,16 +2270,22 @@
       <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="C88" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="10" t="s">
@@ -2230,24 +2294,34 @@
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="35"/>
+      <c r="A90" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
-      <c r="B91" s="28"/>
+      <c r="A91" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="C91" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="36" t="s">
+      <c r="A92" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="10" t="s">
@@ -2256,24 +2330,34 @@
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="C93" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="C94" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="37" t="s">
+      <c r="A95" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -2282,24 +2366,36 @@
       <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="C96" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="C97" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="33"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
@@ -2309,7 +2405,9 @@
       <c r="A99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="30"/>
+      <c r="B99" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="C99" s="10" t="s">
         <v>124</v>
       </c>
@@ -2317,14 +2415,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
-  <mergeCells count="5">
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B98"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9D18D-445B-40FD-A28C-FCD0E4EF39DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9A99D-E68E-4F72-B813-E6FE9E8AFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="150">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -477,6 +477,36 @@
   </si>
   <si>
     <t>34cfea4d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea8a-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>d2e1ab96-cc05-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea81-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>bcd3a8ae-0404-11eb-a11c-0a5a9a4f6ef7</t>
+  </si>
+  <si>
+    <t>b9643302-0407-11eb-a11c-0a5a9a4f6ef7</t>
+  </si>
+  <si>
+    <t>a5eb59b4-0406-11eb-a11c-0a5a9a4f6ef7</t>
+  </si>
+  <si>
+    <t>34cfea34-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfe9dd-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea97-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfe9ef-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -529,21 +559,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF454545"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -732,11 +765,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,17 +851,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -1179,1239 +1214,1260 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="34" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="34" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="34" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="34" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="34" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="34" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="34" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="34" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="34" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="A65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="30" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="30" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="32" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="10"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="10"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="10"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="10"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="10"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="10"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="10"/>
+      <c r="D99" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9A99D-E68E-4F72-B813-E6FE9E8AFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1920E-F122-4925-9F01-88C3C7FB1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -441,30 +441,6 @@
   </si>
   <si>
     <t>level3</t>
-  </si>
-  <si>
-    <t>fcf381c8-f64d-42cc-a3c5-560642e6ac68</t>
-  </si>
-  <si>
-    <t>6d3f6a41-192c-3809-9666-6d0edd3040ed</t>
-  </si>
-  <si>
-    <t>uuid_collection</t>
-  </si>
-  <si>
-    <t>uuid_thesauri</t>
-  </si>
-  <si>
-    <t>472b85a1-d2ae-3983-81a0-5c6341a93f5b</t>
-  </si>
-  <si>
-    <t>5d0080d4-6c43-33e5-8891-0cd48a662075</t>
-  </si>
-  <si>
-    <t>372f1e4f-45be-3601-9af5-377ef8b8863d</t>
-  </si>
-  <si>
-    <t>17b3a251-69b0-43a1-9c10-50839fcd2aa8</t>
   </si>
   <si>
     <t>uuid_sql</t>
@@ -513,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,20 +540,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF454545"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -765,7 +727,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,13 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -1211,25 +1170,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="28.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -1240,16 +1196,10 @@
         <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1259,17 +1209,11 @@
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1279,11 +1223,11 @@
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,10 +1238,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1307,11 +1251,11 @@
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1321,11 +1265,11 @@
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,11 +1279,11 @@
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1349,11 +1293,11 @@
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1363,11 +1307,11 @@
       <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1377,11 +1321,11 @@
       <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1391,11 +1335,11 @@
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1405,11 +1349,11 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1365,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1377,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1389,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +1977,7 @@
       </c>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +1989,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>5</v>
       </c>
@@ -2056,10 +2000,10 @@
         <v>91</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>5</v>
       </c>
@@ -2070,13 +2014,10 @@
         <v>92</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>5</v>
       </c>
@@ -2087,11 +2028,8 @@
         <v>93</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>5</v>
       </c>
@@ -2102,11 +2040,8 @@
         <v>94</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2053,7 @@
       </c>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2065,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2077,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2089,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2101,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2113,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2125,7 @@
       </c>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>5</v>
       </c>
@@ -2201,11 +2136,8 @@
         <v>102</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2149,7 @@
       </c>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2161,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>5</v>
       </c>
@@ -2470,7 +2402,7 @@
       <c r="D99" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <autoFilter ref="A1:D1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1920E-F122-4925-9F01-88C3C7FB1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E54C58-40CC-4978-8453-4574E6DBFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -483,13 +483,220 @@
   </si>
   <si>
     <t>34cfe9ef-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Enhanced record minimum standard</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes, if an acquisition date is available. If there are a range of images the earliest and most recent dates should be added.</t>
+  </si>
+  <si>
+    <t>No (a site identified via remote sensing may not have an identifiable name, and the EAMENA Database will automatically generate a UiD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes (including â€˜Unknownâ€™)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, unless there is no Site Feature Interpretation Type (eg. If the interpretation field is listed â€˜Unknownâ€™ then the Feature field should be filled in)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Yes (including 'No Visible/Known')</t>
+  </si>
+  <si>
+    <t>34cfea91-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea77-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea4a-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>d9abdfdb-c6a3-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>d9abdfe0-c6a3-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>d9abdfdf-c6a3-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>ce842cdc-c2c7-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>5348cf6c-c2c5-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea5d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea43-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea95-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea73-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea6d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea8f-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfe9e6-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>38cff73b-c77b-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>38cff738-c77b-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>38cff737-c77b-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>b7314be2-c5fa-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>173ff15a-c5fb-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>41afc438-c5fb-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>5435f2ee-c5fb-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>086e756c-cb86-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea9a-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea59-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea19-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfe9e9-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfe9f8-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea44-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea3c-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea4e-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea6b-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea47-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea60-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea86-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea68-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>e3cc8c5c-c772-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea65-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea92-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>e3cc8c5a-c772-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea90-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea5c-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea76-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea0a-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea64-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea84-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea39-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea93-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea61-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea9e-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea37-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea2b-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea3f-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea38-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea9b-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea8d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>uuid_sql_old</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +743,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,14 +941,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,10 +1033,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -1170,22 +1385,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -1198,1211 +1416,1542 @@
       <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="16" t="s">
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="16" t="s">
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="16" t="s">
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="18" t="s">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="18" t="s">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="18" t="s">
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="18" t="s">
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="18" t="s">
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="18" t="s">
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="20" t="s">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="D58" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="21" t="s">
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="21" t="s">
+      <c r="D62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="21" t="s">
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
+      <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
+      <c r="D68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="22" t="s">
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+      <c r="E70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="D78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="D80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
+      <c r="D84" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+      <c r="D85" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="27" t="s">
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="27" t="s">
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
+      <c r="D90" t="s">
+        <v>201</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="27" t="s">
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="27" t="s">
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="28" t="s">
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="9"/>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <autoFilter ref="A1:G1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E54C58-40CC-4978-8453-4574E6DBFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3189F7-6424-467D-A80A-96AC5F33DF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="720" yWindow="1152" windowWidth="21600" windowHeight="11232" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="209">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -681,12 +681,6 @@
   </si>
   <si>
     <t>34cfea9b-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
-    <t>34cfea8d-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
-    <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
   </si>
   <si>
     <t>uuid_sql_old</t>
@@ -748,6 +742,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
       <name val="Calibri"/>
@@ -941,7 +936,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,8 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1385,22 +1379,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="126.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="32"/>
+    <col min="6" max="6" width="37.33203125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1416,11 +1409,11 @@
       <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2939,16 +2932,6 @@
         <v>207</v>
       </c>
       <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D100" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
-        <v>209</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3189F7-6424-467D-A80A-96AC5F33DF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96018E2A-4FE9-4426-80C4-D169E3371437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1152" windowWidth="21600" windowHeight="11232" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>ABSOLUTE CHRONOLOGY</t>
   </si>
   <si>
-    <t>SITE FEATURES &amp; INTERPRETATIONS</t>
-  </si>
-  <si>
     <t>MATERIAL</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>uuid_sql_old</t>
+  </si>
+  <si>
+    <t>SITE FEATURES and INTERPRETATIONS</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,22 +1398,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1580,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1600,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -1638,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -1656,13 +1656,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1674,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1689,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1707,13 +1707,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1725,13 +1725,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1743,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1758,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -1815,13 +1815,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -1833,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -1848,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -1866,13 +1866,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -1884,10 +1884,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -1899,10 +1899,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -1914,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -1926,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -1938,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -1953,13 +1953,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -1971,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -1986,13 +1986,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -2004,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2019,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -2034,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -2073,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -2088,10 +2088,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F43" s="8"/>
     </row>
@@ -2103,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -2118,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2133,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -2157,16 +2157,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -2175,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="8"/>
     </row>
@@ -2190,16 +2190,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -2208,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="8"/>
     </row>
@@ -2226,16 +2226,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -2244,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="8"/>
     </row>
@@ -2256,13 +2256,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="8"/>
     </row>
@@ -2271,16 +2271,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="8"/>
     </row>
@@ -2289,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="8"/>
     </row>
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="8"/>
     </row>
@@ -2313,13 +2313,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F58" s="8"/>
     </row>
@@ -2328,13 +2328,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F59" s="8"/>
     </row>
@@ -2343,13 +2343,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" s="8"/>
     </row>
@@ -2358,13 +2358,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="8"/>
     </row>
@@ -2373,13 +2373,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="8"/>
     </row>
@@ -2388,13 +2388,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F63" s="8"/>
     </row>
@@ -2403,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" s="8"/>
     </row>
@@ -2418,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" s="8"/>
     </row>
@@ -2433,13 +2433,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2467,16 +2467,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F68" s="8"/>
     </row>
@@ -2485,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F69" s="8"/>
     </row>
@@ -2500,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F70" s="8"/>
     </row>
@@ -2515,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" s="4"/>
     </row>
@@ -2530,13 +2530,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F72" s="4"/>
     </row>
@@ -2545,10 +2545,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="4"/>
     </row>
@@ -2557,13 +2557,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -2572,16 +2572,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -2590,13 +2590,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="8"/>
     </row>
@@ -2605,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F77" s="8"/>
     </row>
@@ -2620,16 +2620,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F78" s="8"/>
     </row>
@@ -2638,16 +2638,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="8"/>
     </row>
@@ -2656,13 +2656,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F80" s="8"/>
     </row>
@@ -2671,10 +2671,10 @@
         <v>5</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F81" s="8"/>
     </row>
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F82" s="8"/>
     </row>
@@ -2695,10 +2695,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" s="8"/>
     </row>
@@ -2707,13 +2707,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F84" s="8"/>
     </row>
@@ -2725,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F85" s="8"/>
     </row>
@@ -2743,10 +2743,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F86" s="8"/>
     </row>
@@ -2755,10 +2755,10 @@
         <v>6</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F87" s="8"/>
     </row>
@@ -2767,13 +2767,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F88" s="8"/>
     </row>
@@ -2782,13 +2782,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F89" s="8"/>
     </row>
@@ -2797,13 +2797,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F90" s="8"/>
     </row>
@@ -2815,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91" s="8"/>
     </row>
@@ -2827,13 +2827,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F92" s="8"/>
     </row>
@@ -2842,13 +2842,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F93" s="8"/>
     </row>
@@ -2857,13 +2857,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" s="8"/>
     </row>
@@ -2872,13 +2872,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F95" s="8"/>
     </row>
@@ -2887,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F96" s="8"/>
     </row>
@@ -2899,10 +2899,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F97" s="8"/>
     </row>
@@ -2911,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F98" s="8"/>
     </row>
@@ -2926,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F99" s="8"/>
     </row>

--- a/dev/data_quality/template.xlsx
+++ b/dev/data_quality/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96018E2A-4FE9-4426-80C4-D169E3371437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A3B2F-15A4-412B-A023-2B12B50CF2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1152" windowWidth="21600" windowHeight="11232" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>MARINE ENVIRONMENT</t>
   </si>
   <si>
-    <t>DEPTH/ELEVATION</t>
-  </si>
-  <si>
     <t>Assessment Investigator - Actor</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>SITE FEATURES and INTERPRETATIONS</t>
+  </si>
+  <si>
+    <t>DEPTH or ELEVATION</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,22 +1398,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E1" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1580,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1600,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -1638,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -1656,13 +1656,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1674,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1689,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1707,13 +1707,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1725,13 +1725,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1743,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1758,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -1815,13 +1815,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -1833,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -1848,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -1866,13 +1866,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -1884,10 +1884,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -1899,10 +1899,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -1914,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -1926,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -1938,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -1953,13 +1953,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -1971,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -1986,13 +1986,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -2004,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2019,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -2034,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -2073,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -2088,10 +2088,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="8"/>
     </row>
@@ -2103,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -2118,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2133,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -2157,16 +2157,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -2175,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F49" s="8"/>
     </row>
@@ -2190,16 +2190,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -2208,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" s="8"/>
     </row>
@@ -2226,16 +2226,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -2244,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="8"/>
     </row>
@@ -2256,13 +2256,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" s="8"/>
     </row>
@@ -2271,16 +2271,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" s="8"/>
     </row>
@@ -2289,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="8"/>
     </row>
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="8"/>
     </row>
@@ -2316,10 +2316,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" s="8"/>
     </row>
@@ -2331,10 +2331,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" s="8"/>
     </row>
@@ -2346,10 +2346,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F60" s="8"/>
     </row>
@@ -2361,10 +2361,10 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F61" s="8"/>
     </row>
@@ -2376,10 +2376,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F62" s="8"/>
     </row>
@@ -2391,10 +2391,10 @@
         <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" s="8"/>
     </row>
@@ -2406,7 +2406,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" s="8"/>
     </row>
@@ -2418,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="8"/>
     </row>
@@ -2433,13 +2433,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2470,13 +2470,13 @@
         <v>19</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F68" s="8"/>
     </row>
@@ -2488,10 +2488,10 @@
         <v>19</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="8"/>
     </row>
@@ -2503,10 +2503,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70" s="8"/>
     </row>
@@ -2518,10 +2518,10 @@
         <v>19</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F71" s="4"/>
     </row>
@@ -2533,10 +2533,10 @@
         <v>19</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F72" s="4"/>
     </row>
@@ -2548,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" s="4"/>
     </row>
@@ -2560,10 +2560,10 @@
         <v>19</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -2575,13 +2575,13 @@
         <v>19</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -2593,10 +2593,10 @@
         <v>19</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F76" s="8"/>
     </row>
@@ -2608,10 +2608,10 @@
         <v>19</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="8"/>
     </row>
@@ -2623,13 +2623,13 @@
         <v>20</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F78" s="8"/>
     </row>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="8"/>
     </row>
@@ -2659,10 +2659,10 @@
         <v>20</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F80" s="8"/>
     </row>
@@ -2674,7 +2674,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81" s="8"/>
     </row>
@@ -2686,7 +2686,7 @@
         <v>21</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="8"/>
     </row>
@@ -2698,7 +2698,7 @@
         <v>21</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" s="8"/>
     </row>
@@ -2710,10 +2710,10 @@
         <v>21</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F84" s="8"/>
     </row>
@@ -2725,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F85" s="8"/>
     </row>
@@ -2743,10 +2743,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F86" s="8"/>
     </row>
@@ -2758,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="8"/>
     </row>
@@ -2770,10 +2770,10 @@
         <v>22</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F88" s="8"/>
     </row>
@@ -2785,10 +2785,10 @@
         <v>23</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" s="8"/>
     </row>
@@ -2800,10 +2800,10 @@
         <v>23</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" s="8"/>
     </row>
@@ -2815,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" s="8"/>
     </row>
@@ -2830,10 +2830,10 @@
         <v>24</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F92" s="8"/>
     </row>
@@ -2845,10 +2845,10 @@
         <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F93" s="8"/>
     </row>
@@ -2860,10 +2860,10 @@
         <v>24</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F94" s="8"/>
     </row>
@@ -2872,13 +2872,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" s="8"/>
     </row>
@@ -2887,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F96" s="8"/>
     </row>
@@ -2899,10 +2899,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F97" s="8"/>
     </row>
@@ -2911,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F98" s="8"/>
     </row>
@@ -2926,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F99" s="8"/>
     </row>
